--- a/Dataset/Thống kê mô tả STATA.xlsx
+++ b/Dataset/Thống kê mô tả STATA.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Repost STATA" sheetId="1" r:id="rId1"/>
     <sheet name="REPORT R" sheetId="2" r:id="rId2"/>
+    <sheet name="REF" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">REF!$A$1:$C$34</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="152">
   <si>
     <t>Variable</t>
   </si>
@@ -253,6 +257,240 @@
   </si>
   <si>
     <t>Độ lệch chuẩn</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>Đòn bẩy ngắn hạn</t>
+  </si>
+  <si>
+    <t>Ước lượng</t>
+  </si>
+  <si>
+    <t>Đòn bẩy dài hạn</t>
+  </si>
+  <si>
+    <t>Tổng Đòn bẩy sổ sách</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R2 điều chỉnh</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Đậm đỏ</t>
+  </si>
+  <si>
+    <t>Đỏ</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>&lt;2e-16</t>
+  </si>
+  <si>
+    <t>Tổng hợp kết quả</t>
+  </si>
+  <si>
+    <t>Khả năng tăng trưởng</t>
+  </si>
+  <si>
+    <t>Quy mô doanh nghiệp</t>
+  </si>
+  <si>
+    <t>Khả năng sinh lợi</t>
+  </si>
+  <si>
+    <t>Tính thanh khoản</t>
+  </si>
+  <si>
+    <t>Đặc thù doanh nghiệp</t>
+  </si>
+  <si>
+    <t>Tính hữu hình</t>
+  </si>
+  <si>
+    <t>Tên biến</t>
+  </si>
+  <si>
+    <t>Lý thuyết đánh đổi</t>
+  </si>
+  <si>
+    <t>Lý thuyết trật tự phân hạng</t>
+  </si>
+  <si>
+    <t>Thực nghiệm</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ </t>
+  </si>
+  <si>
+    <t>+/-</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Số quan sát</t>
+  </si>
+  <si>
+    <t>Giả thuyết và biến</t>
+  </si>
+  <si>
+    <t>H1  GRWTH</t>
+  </si>
+  <si>
+    <t>H4  TANG</t>
+  </si>
+  <si>
+    <t>H5  LIQD</t>
+  </si>
+  <si>
+    <t>H6  UNIQ</t>
+  </si>
+  <si>
+    <t>H8  COVID</t>
+  </si>
+  <si>
+    <t>H7  GDP</t>
+  </si>
+  <si>
+    <t>Kỳ vọng</t>
+  </si>
+  <si>
+    <t>Đánh giá</t>
+  </si>
+  <si>
+    <t>H2  PROF</t>
+  </si>
+  <si>
+    <t>H3  SIZE</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Xuan Vinh Vo (2017). Determinants of capital structure in emerging markets: Evidence from Vietnam. Research in International Business and Finance. Volume 40, April 2017, Pages 105-113.</t>
+  </si>
+  <si>
+    <t>Huỳnh Nguyễn Yến Nhi (2022). Phân tích các yếu tố ảnh hưởng cấu trúc vốn của các doanh nghiệp ngành du lịch–khách sạn tại Việt Nam trong bối cảnh dịch bệnh Covid-19. .</t>
+  </si>
+  <si>
+    <t>Vũ Hoàng Xuân Nga; người hướng dẫn: Trầm Thị Xuân Hương (2018). Các yếu tố ảnh hưởng đến cấu trúc vốn của doanh nghiệp trên thị trường chứng khoán Việt Nam. Luận văn thạc sỹ.</t>
+  </si>
+  <si>
+    <t>Yildirim, R., Masih, M., &amp; Bacha, O. I. (2018). Determinants of capital structure: evidence from Shari’ah compliant and non-compliant firms.. Pacific-Basin Finance Journal, 51, 198–219. .</t>
+  </si>
+  <si>
+    <t>Lâm Đức Anh (2021). Các nhân tố tác động đến cấu trúc vốn và tốc độ điều chỉnh cấu trúc vốn mục tiêu của các doanh nghiệp ngành công nghiệp niêm yết trên Sở Giao dịch Chứng khoán TP.HCM (HOSE) trong giai đoạn 2015 - 2019 / Lâm Đức Anh; người hướng dẫn: Đinh Thị Thu Hồng.. Luận văn thạc sỹ.</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Việt (2021). Tác động của cấu trúc vốn đến giá trị công ty: bằng chứng thực nghiệm ngành xây dựng tại Việt Nam (2010 - 2020) / Nguyễn Hoàng Việt; người hướng dẫn: Lê Đạt Chí. Luận văn thạc sỹ.</t>
+  </si>
+  <si>
+    <t>Gangeni, C. (2006). the Relationship between Capital Structure and the Financial Performance of the Firm. . Master Thesis: University of Pretoria, South Africa..</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Myers, S. C. (1977). Determinants of corporate borrowing.  Journal of Financial Economics, 5, 147–175.</t>
+  </si>
+  <si>
+    <t>Titman, S., &amp; Wessels, R. (1988). The determinants of capital structure choice. Journal of Finance, 43(1), 1–1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim H., Heshmati A. and Aoun D. 2006. Dynamics of capital structure: The case of Korean listed  manufacturing companies. Asian Economic Journal 20(3): 275-302. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banerjee S., Heshmati A. and Wihlborg C. 2004. The dynamics of capital structure. Research in Banking and Finance 4(1): 275-297. </t>
+  </si>
+  <si>
+    <t>Homaifar G., Zietz J. and Benkato O. 1994. An empirical model of capital structure: Some new evidence. Journal of Business Finance and Accounting 21(1): 1-14.</t>
+  </si>
+  <si>
+    <t>Modigliani, F., &amp; Miller, M. H. (1958). The cost of capital, corporation finance and the theory of investment. The American Economic Review, 48(3), 261–297.</t>
+  </si>
+  <si>
+    <t>Modigliani, F., &amp; Miller, M. H. (1963). Corporate income taxes and the cost of capital Economic Review, 53(3), 433–443.</t>
+  </si>
+  <si>
+    <t>Myers, S. C. (1984). The capital structure puzzle. Journal of Finance, 39, 575–592.</t>
+  </si>
+  <si>
+    <t>La Porta, R., Lopez-de-Silanes, F., Shleifer, A. &amp; Vishny, R. 1998, 'Law and finance', Journal of Political Economy, vol. 106, pp. 1113-1150.</t>
+  </si>
+  <si>
+    <t>La Rocca, M., La Rocca, T., Gerace, D. &amp; Smark, C. 2009, 'Effect of diversification on capital structure', Accounting &amp; Finance, vol. 49, no. 4, pp. 799-826.</t>
+  </si>
+  <si>
+    <t>Leary, M. &amp; Roberts, M. 2010, 'The pecking order, debt capacity, and information asymmetry', Journal of Financial Economics, vol. 95, no. 3, pp. 332-355.</t>
+  </si>
+  <si>
+    <t>Serrasqueiro, Z., &amp; Rogão, R. (2009). Capital structure of listed Por-tuguese companies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Determinants of debt adjustment. Review of Accounting and Finance, 8(1), 54---75.</t>
+  </si>
+  <si>
+    <t>Shapiro, A. (2013). Multinational financial management. Wiley &amp;Sons.Sogorb-Mir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michaelas, N., Chittenden, F., &amp; Poutziouris, P. (1998). A model ofcapital structure decision making in small firms. Journal of SmallBusiness and Enterprise Development, 5(3), 246---260. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paramasivan. C, and Subramanian, T. (2009), Financial Management. New Age International Limited, Publishers. New Delhi. 2009. </t>
+  </si>
+  <si>
+    <t>Jensen, M. 1986, 'Agency costs of free cash flow, corporate finance, and takeovers', American Economic Review, vol. 76, no. 2, pp. 323-329.</t>
+  </si>
+  <si>
+    <t>Myers, S.C. &amp; Rajan, R.G. 1998, 'The paradox of liquidity', The Quarterly Journal of Economics, vol. 113, no. 3, pp. 733-771.</t>
+  </si>
+  <si>
+    <t>Thomas Lindner, Florian Klein, Stefan Schmidt, The effect of internationalization on firm capital structure: A meta-analysis and exploration of institutional contingencies, International Business Review, Volume 27, Issue 6, 2018, Pages 1238-1249,</t>
+  </si>
+  <si>
+    <t>L. Pacheco, F. Tavares, Capital structure determinants of Portuguese footwear sector SMEs: Empirical evidence using a panel data, Tékhne, Volume 13, Issue 2, 2015, Pages 145-157, ISSN 1645-9911,</t>
+  </si>
+  <si>
+    <t>Degryse, H., de Goeij, P. &amp; Kappert, P. The impact of firm and industry characteristics on small firms’ capital structure. Small Bus Econ 38, 431–447 (2012). https://doi.org/10.1007/s11187-010-9281-8</t>
+  </si>
+  <si>
+    <t>Amir Moradi, Elisabeth Paulet, The firm-specific determinants of capital structure – An empirical analysis of firms before and during the Euro Crisis, Research in International Business and Finance, Volume 47, 2019, Pages 150-161, ISSN 0275-5319, https://doi.org/10.1016/j.ribaf.2018.07.007.</t>
+  </si>
+  <si>
+    <t>Thi Phuong Vy Le , Kathy Tannous (2016). Ownership Structure and Capital Structure: A Study of Vietnamese Listed Firms. Australian Economic Papers, Vol. 55, Issue 4, pp. 319-344, 2016.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booth, L., Aivazian, V., Demirguc-kunt, A. &amp; Maksimovic, V. 2001, 'Capital structures in developing countries', The Journal of Finance, vol. LVI, no. 1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sbeti, W.M. &amp; Moosa, I. 2012, 'Firm-specific factors as determinants of capital structure in the absence of taxes', Applied Financial Economics, vol. 22, no. 3, pp. 209-213. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harris, M. &amp; Raviv, A. 1991, 'Theory of capital structure', The Journal of Finance, vol. 46, pp. 297-355. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myers, S. 1977, 'Determinants of corporate borrowing', Journal of Financial Economics, vol. 5, no. 2, pp. 147–175. </t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -262,9 +500,9 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,16 +532,78 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -311,12 +611,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -326,13 +641,55 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -610,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
@@ -2581,87 +2938,1372 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="K1:N8"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="L1" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K2" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>58</v>
       </c>
-      <c r="L2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="11:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="K3" t="s">
+    <row r="3" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="11:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="K4" t="s">
+    <row r="4" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K5" s="4" t="s">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K8" t="s">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>63</v>
       </c>
     </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="9">
+        <v>-9.4477999999999999E-4</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3.5837E-4</v>
+      </c>
+      <c r="E13" s="8">
+        <v>8.5310000000000004E-3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>9.3702000000000005E-5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.4731999999999998E-4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.70489999999999997</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-8.5108000000000004E-4</v>
+      </c>
+      <c r="J13" s="2">
+        <v>3.8917999999999998E-4</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2.9020000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8">
+        <v>7.47147E-3</v>
+      </c>
+      <c r="D14" s="8">
+        <v>4.8958600000000001E-3</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.127355</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3.074E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3.3787000000000001E-3</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3.8211420000000003E-2</v>
+      </c>
+      <c r="J14" s="11">
+        <v>5.3166899999999998E-3</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1.428E-12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="10">
+        <v>-0.70002790000000004</v>
+      </c>
+      <c r="D15" s="8">
+        <v>6.8302459999999995E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.428E-12</v>
+      </c>
+      <c r="F15" s="11">
+        <v>-0.40988000000000002</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4.7135999999999997E-2</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-1.1099092800000001</v>
+      </c>
+      <c r="J15" s="11">
+        <v>7.41734E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1.428E-12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="10">
+        <v>-4.3552E-3</v>
+      </c>
+      <c r="D16" s="8">
+        <v>4.6957999999999999E-4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.428E-12</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-1.1896E-4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3.2405999999999998E-4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.71360000000000001</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-4.4741599999999996E-3</v>
+      </c>
+      <c r="J16" s="11">
+        <v>5.0995000000000001E-4</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1.428E-12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10">
+        <v>-0.14322914</v>
+      </c>
+      <c r="D17" s="8">
+        <v>8.8515999999999994E-3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.428E-12</v>
+      </c>
+      <c r="F17" s="11">
+        <v>5.3393999999999997E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6.1085000000000002E-3</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-8.9835579999999998E-2</v>
+      </c>
+      <c r="J17" s="11">
+        <v>9.6124299999999999E-3</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1.428E-12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="10">
+        <v>-0.25819092999999999</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2.805498E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.428E-12</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.27023000000000003</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.9361E-2</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.2043089999999999E-2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3.0466440000000001E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.69272999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8">
+        <v>-6.9215719999999994E-2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.13522159</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.608873</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-8.2711999999999994E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>9.3316999999999997E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.37569999999999998</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-0.15192791999999999</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.14684457000000001</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.30114000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="8">
+        <v>-6.1394800000000001E-3</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1.8864519999999999E-2</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.74491799999999997</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-1.3315E-3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.3018999999999999E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.91859999999999997</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-7.47103E-3</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2.0486020000000001E-2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.71543000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21">
+        <v>0.45228000000000002</v>
+      </c>
+      <c r="F21">
+        <v>0.41083999999999998</v>
+      </c>
+      <c r="I21">
+        <v>0.37207000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22">
+        <v>0.44342999999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.40132000000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.36192999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23">
+        <v>89.489599999999996</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.428E-12</v>
+      </c>
+      <c r="F23">
+        <v>75.572500000000005</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.428E-12</v>
+      </c>
+      <c r="I23">
+        <v>64.214600000000004</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1.428E-12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="J31" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" t="s">
+        <v>94</v>
+      </c>
+      <c r="L32" t="s">
+        <v>95</v>
+      </c>
+      <c r="M32" t="s">
+        <v>96</v>
+      </c>
+      <c r="N32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="9">
+        <v>-9.4477999999999999E-4</v>
+      </c>
+      <c r="D33" s="8">
+        <v>3.5837E-4</v>
+      </c>
+      <c r="E33" s="1">
+        <v>9.3702000000000005E-5</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2.4731999999999998E-4</v>
+      </c>
+      <c r="G33" s="2">
+        <v>-8.5108000000000004E-4</v>
+      </c>
+      <c r="H33" s="17">
+        <v>3.8917999999999998E-4</v>
+      </c>
+      <c r="J33" t="s">
+        <v>88</v>
+      </c>
+      <c r="K33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="8">
+        <v>7.47147E-3</v>
+      </c>
+      <c r="D34" s="8">
+        <v>4.8958600000000001E-3</v>
+      </c>
+      <c r="E34" s="11">
+        <v>3.074E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3.3787000000000001E-3</v>
+      </c>
+      <c r="G34" s="11">
+        <v>3.8211420000000003E-2</v>
+      </c>
+      <c r="H34" s="17">
+        <v>5.3166899999999998E-3</v>
+      </c>
+      <c r="J34" t="s">
+        <v>89</v>
+      </c>
+      <c r="K34" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="10">
+        <v>-0.70002790000000004</v>
+      </c>
+      <c r="D35" s="8">
+        <v>6.8302459999999995E-2</v>
+      </c>
+      <c r="E35" s="11">
+        <v>-0.40988000000000002</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4.7135999999999997E-2</v>
+      </c>
+      <c r="G35" s="11">
+        <v>-1.1099092800000001</v>
+      </c>
+      <c r="H35" s="17">
+        <v>7.41734E-2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>90</v>
+      </c>
+      <c r="K35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="10">
+        <v>-4.3552E-3</v>
+      </c>
+      <c r="D36" s="8">
+        <v>4.6957999999999999E-4</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-1.1896E-4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3.2405999999999998E-4</v>
+      </c>
+      <c r="G36" s="11">
+        <v>-4.4741599999999996E-3</v>
+      </c>
+      <c r="H36" s="17">
+        <v>5.0995000000000001E-4</v>
+      </c>
+      <c r="J36" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="10">
+        <v>-0.14322914</v>
+      </c>
+      <c r="D37" s="8">
+        <v>8.8515999999999994E-3</v>
+      </c>
+      <c r="E37" s="11">
+        <v>5.3393999999999997E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>6.1085000000000002E-3</v>
+      </c>
+      <c r="G37" s="11">
+        <v>-8.9835579999999998E-2</v>
+      </c>
+      <c r="H37" s="17">
+        <v>9.6124299999999999E-3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>92</v>
+      </c>
+      <c r="K37" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="10">
+        <v>-0.25819092999999999</v>
+      </c>
+      <c r="D38" s="8">
+        <v>2.805498E-2</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0.27023000000000003</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.9361E-2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1.2043089999999999E-2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3.0466440000000001E-2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>93</v>
+      </c>
+      <c r="K38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="8">
+        <v>-6.9215719999999994E-2</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0.13522159</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-8.2711999999999994E-2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>9.3316999999999997E-2</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-0.15192791999999999</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.14684457000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="8">
+        <v>-6.1394800000000001E-3</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1.8864519999999999E-2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-1.3315E-3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1.3018999999999999E-2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>-7.47103E-3</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2.0486020000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41">
+        <v>0.45228000000000002</v>
+      </c>
+      <c r="E41">
+        <v>0.41083999999999998</v>
+      </c>
+      <c r="G41">
+        <v>0.37207000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42">
+        <v>0.44342999999999999</v>
+      </c>
+      <c r="E42">
+        <v>0.40132000000000001</v>
+      </c>
+      <c r="G42">
+        <v>0.36192999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="12">
+        <v>89.489599999999996</v>
+      </c>
+      <c r="E43" s="12">
+        <v>75.572500000000005</v>
+      </c>
+      <c r="G43" s="12">
+        <v>64.214600000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="21"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I48" s="16" t="str">
+        <f>IF(COUNTIF(F48:H48,"NS")&lt;=1,"Chấp nhận","..")</f>
+        <v>Chấp nhận</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I49" s="16" t="str">
+        <f t="shared" ref="I49:I55" si="0">IF(COUNTIF(F49:H49,"NS")&lt;=1,"Chấp nhận","..")</f>
+        <v>Chấp nhận</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I50" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Chấp nhận</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I51" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Chấp nhận</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I52" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Chấp nhận</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I53" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Chấp nhận</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I54" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>..</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I55" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>..</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C34">
+    <filterColumn colId="0">
+      <filters blank="1"/>
+    </filterColumn>
+    <sortState ref="A2:C36">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>